--- a/src/models/data/staff_expertise.xlsx
+++ b/src/models/data/staff_expertise.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193D3CC0-2FB8-4B8D-B4F4-AF2BAB0FAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>id_staff</t>
+  </si>
+  <si>
+    <t>id_expertise</t>
+  </si>
+  <si>
+    <t>2d1468a6-721a-49a9-900c-f16725ce0fbe</t>
+  </si>
+  <si>
+    <t>fb723ca8-832b-448b-8b73-ab8a632c3e84</t>
+  </si>
+  <si>
+    <t>353066b6-4bb7-4df8-8f46-88f71bf6a182</t>
+  </si>
+  <si>
+    <t>5deb962d-afd3-423d-90c2-96e3b819f597</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,13 +359,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/models/data/staff_expertise.xlsx
+++ b/src/models/data/staff_expertise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193D3CC0-2FB8-4B8D-B4F4-AF2BAB0FAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CEA8D7-6C42-4FDA-B1A7-8B5CCCECDC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>id_staff</t>
   </si>
@@ -43,6 +43,54 @@
   </si>
   <si>
     <t>5deb962d-afd3-423d-90c2-96e3b819f597</t>
+  </si>
+  <si>
+    <t>eba9a698-8741-4712-b71c-8cbbd6ed5734</t>
+  </si>
+  <si>
+    <t>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</t>
+  </si>
+  <si>
+    <t>1aff8187-23a0-4da6-b842-1ec012d2c703</t>
+  </si>
+  <si>
+    <t>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</t>
+  </si>
+  <si>
+    <t>9b536245-36e6-410a-ac4a-8edeed937397</t>
+  </si>
+  <si>
+    <t>03b1f097-cabc-408a-a946-a25289fd1b1a</t>
+  </si>
+  <si>
+    <t>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</t>
+  </si>
+  <si>
+    <t>7a774d99-0e16-497e-b78f-38027d81044a</t>
+  </si>
+  <si>
+    <t>bcbf9608-6d95-44ef-b348-fb5b50ea095c</t>
+  </si>
+  <si>
+    <t>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</t>
+  </si>
+  <si>
+    <t>b3d5fd58-55e3-4920-ae44-f30abe9ac904</t>
+  </si>
+  <si>
+    <t>e41b1a6f-2d65-49d4-8af9-59159a0c374c</t>
+  </si>
+  <si>
+    <t>fdd9d6f5-68d2-4923-9895-808d976f5dd1</t>
+  </si>
+  <si>
+    <t>bb5bba1d-1899-4fe7-a2dd-32fc60cebe38</t>
+  </si>
+  <si>
+    <t>b9238e62-1a0d-4c2a-b98f-a3420ff1f463</t>
+  </si>
+  <si>
+    <t>3a076763-c856-4143-a214-67842ea7703c</t>
   </si>
 </sst>
 </file>
@@ -360,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,6 +452,78 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/models/data/staff_expertise.xlsx
+++ b/src/models/data/staff_expertise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CEA8D7-6C42-4FDA-B1A7-8B5CCCECDC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D04CBD4-0BA2-4F19-9917-3ACF3D044047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id_staff</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>3a076763-c856-4143-a214-67842ea7703c</t>
+  </si>
+  <si>
+    <t>0ba32cd2-e617-418a-84a0-9e53826a0b9d</t>
+  </si>
+  <si>
+    <t>5e51b358-2ac1-4f46-94c1-d0bc9e1dec07</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,6 +530,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/models/data/staff_expertise.xlsx
+++ b/src/models/data/staff_expertise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D04CBD4-0BA2-4F19-9917-3ACF3D044047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C8702-FCB5-488C-BD37-7264D59FD530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>id_staff</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,28 +439,28 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -468,73 +468,65 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
